--- a/biology/Médecine/Gabriel_Coscas/Gabriel_Coscas.xlsx
+++ b/biology/Médecine/Gabriel_Coscas/Gabriel_Coscas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gabriel Josué Coscas, né le 1er mars 1931 à Tunis (Tunisie) et mort le 4 mars 2023 à Paris[1], est un professeur émérite français d’ophtalmologie (université Paris XII, Créteil), spécialisé dans la lutte contre le trachome, les maladies rétiniennes et dans le diagnostic et le traitement de la DMLA (dégénérescence maculaire liée à l'âge).
-En 1970, il fonde le service d’ophtalmologie de Créteil au Centre Hospitalier Intercommunal[2]. Il en est le chef de service jusqu’en 1999. Il crée une école [Laquelle ?] de renommée internationale, dont tous les ophtalmologistes spécialistes de pathologies rétiniennes de France sont issus. Il est le fondateur et président de la Société européenne de recherche en ophtalmologie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gabriel Josué Coscas, né le 1er mars 1931 à Tunis (Tunisie) et mort le 4 mars 2023 à Paris, est un professeur émérite français d’ophtalmologie (université Paris XII, Créteil), spécialisé dans la lutte contre le trachome, les maladies rétiniennes et dans le diagnostic et le traitement de la DMLA (dégénérescence maculaire liée à l'âge).
+En 1970, il fonde le service d’ophtalmologie de Créteil au Centre Hospitalier Intercommunal. Il en est le chef de service jusqu’en 1999. Il crée une école [Laquelle ?] de renommée internationale, dont tous les ophtalmologistes spécialistes de pathologies rétiniennes de France sont issus. Il est le fondateur et président de la Société européenne de recherche en ophtalmologie.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gabriel Coscas naît en Tunisie coloniale en 1931 dans une famille juive modeste. Son père, Jules Coscas, travaille au souk de Tunis comme négociant, sa mère Gilda est femme au foyer.
 Il étudie au prestigieux Lycée Carnot de Tunis où il obtient son baccalauréat en 1949, mention Très Bien.
@@ -550,13 +564,15 @@
           <t>Parcours professionnel et universitaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Gabriel Coscas, dès son clinicat à L’Hôtel-Dieu, crée des consultations spécialisées pour les patients opérés de la cataracte.
-Il modernise le service d’ophtalmologie de l’hôpital intercommunal de Créteil et contribue à en faire un pôle spécialisé dans la DMLA et les maladies de la rétine. Gabriel Coscas a consacré une grande part de son activité au développement d’une nouvelle discipline : la pathologie rétinienne, s’orientant sur les affections maculaires et les autres désordres rétiniens, fondant ainsi, avec ses Élèves, une véritable École Française de la Rétine, orientée tout particulièrement vers les grandes acquisitions récentes : l’angiographie oculaire à la fluorescéine et en infrarouge et le LASER. Il a organisé et dirigé, en France, la première étude mondiale, contrôlée et randomisée, sur la Photocoagulation Maculaire au LASER dans la Dégénérescence maculaire liée à l’âge (DMLA) (1977-1982)[3].
+Il modernise le service d’ophtalmologie de l’hôpital intercommunal de Créteil et contribue à en faire un pôle spécialisé dans la DMLA et les maladies de la rétine. Gabriel Coscas a consacré une grande part de son activité au développement d’une nouvelle discipline : la pathologie rétinienne, s’orientant sur les affections maculaires et les autres désordres rétiniens, fondant ainsi, avec ses Élèves, une véritable École Française de la Rétine, orientée tout particulièrement vers les grandes acquisitions récentes : l’angiographie oculaire à la fluorescéine et en infrarouge et le LASER. Il a organisé et dirigé, en France, la première étude mondiale, contrôlée et randomisée, sur la Photocoagulation Maculaire au LASER dans la Dégénérescence maculaire liée à l’âge (DMLA) (1977-1982).
 Le professeur Gabriel Coscas a décrit la sémiologie des angiographies rétiniennes, que ce soit l’angiographie à la fluorescéine et l’angiographie à l’infracyanine. Il a été à l’origine de nombreuses études sur l’utilisation du laser dans les pathologies rétiniennes.
 Il a décrit la sémiologie des OCT, et en particulier les points hyper-réflectifs, ou Pin Points, reconnus depuis comme étant des signes d’activité de la maladie rétinienne.
-Il a décrit, le premier, la sémiologie des néovaisseaux maculaires en OCTAngiographie[4].
+Il a décrit, le premier, la sémiologie des néovaisseaux maculaires en OCTAngiographie.
 </t>
         </is>
       </c>
@@ -585,7 +601,9 @@
           <t>Enseignement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Création et organisation du Certificat Coordonné d'OPH-ORL-STO à la Faculté de Médecine de Créteil, depuis 1971.
 Directeur de l'Enseignement d'Ophtalmologie pour la Région Île-de-France (CHU de Paris) de 1983 à 1985 ; co-Directeur de 1985 à 1996.
@@ -624,7 +642,9 @@
           <t>Titres et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Guest of Honor de l’American Academy of Ophthalmology, 1985
 Invité d'Honneur à la Société Italienne d'Ophtalmologie, 1986
@@ -634,11 +654,11 @@
 Jules Stein Lecture and Award, Tel Aviv 1992
 Michaelson Lecture and Award, Budapest 1995
 Conférencier au Symposium sur l’ICG à Nara, Japon, 1995
-Médaille d’or de la Société Tunisienne d’ophtalmologie, 1995[5]
+Médaille d’or de la Société Tunisienne d’ophtalmologie, 1995
 Award of Merit of the Retina Research Foundation, Club Jules Gonin, Bern 1996
-Médaille John Donald Gass à la Macula Society, 1996[6]
+Médaille John Donald Gass à la Macula Society, 1996
 Médaille d’or de la Société Méditerranéenne d’Ophtalmologie 1998
-Membre d’Honneur du Club Jules Gonin en 1998[7]
+Membre d’Honneur du Club Jules Gonin en 1998
 Membre d’Honneur de la Société française d’Ophtalmologie en 1998
 Academia Ophthalmologica Internationalis Lecture, à Jérusalem en 2000
 Lecture Jules François (SIDUO) à Paris 2001
@@ -647,17 +667,17 @@
 Senior Award de l’American Academy of Ophthalmology, 2001
 Membre d’Honneur de l’Institut Barraquer de Barcelone 2002
 Premier récipiendaire de la « Lecture Gabriel COSCAS » à Paris, 2002
-Membre d’Honneur, comme membre fondateur, EVER 2003[8]
+Membre d’Honneur, comme membre fondateur, EVER 2003
 Membre d’Honneur Syndicat National des Ophtalmologistes Français, 2004
-Médaille d’or de la Société algérienne d’ophtalmologie 2005[9]
+Médaille d’or de la Société algérienne d’ophtalmologie 2005
 Academia Ophthalmologica Internationalis Lecture 2005
 Médaille Kortobi de la Société Tunisienne d’Ophtalmologie, 2006.
 EURETINA Lecture à Lisbonne, 2006
 EURETINA Lecture à Barcelone, 2007
-Il a reçu la médaille Patz à la Macula Society à Jerusalem en 2012, première fois pour une ophtalmologiste français[10].
-Gabriel Coscas a fondé l’Association DMLA en 2003[11].
-Il est l’un des fondateurs de la Société française de la rétine[12]en 1976 et membre d’honneur de la Société d’Ophtalmologie de Paris (1987-1988).
-Gabriel Coscas a été président de la Ligue française contre le trachome[13](depuis 1975) et de l’International Organization Against Trachoma (depuis 1977).
+Il a reçu la médaille Patz à la Macula Society à Jerusalem en 2012, première fois pour une ophtalmologiste français.
+Gabriel Coscas a fondé l’Association DMLA en 2003.
+Il est l’un des fondateurs de la Société française de la rétineen 1976 et membre d’honneur de la Société d’Ophtalmologie de Paris (1987-1988).
+Gabriel Coscas a été président de la Ligue française contre le trachome(depuis 1975) et de l’International Organization Against Trachoma (depuis 1977).
 Il est nommé Commandeur de l'Ordre de la République Tunisienne en 1980
 Il est nommé Chevalier de l'Ordre des Palmes Académiques en 1984 puis Officier en 1995.
 Il est élu comme membre d’honneur de l’Académie Américaine d’Ophtalmologie en 1985.
@@ -666,7 +686,7 @@
 Il a été Président Fondateur de l’Organisation Européenne de Recherche en Ophtalmologie (JERMOV) jusqu'en 1995.
 Il a été Président du Collège des Ophtalmologistes Universitaires de France entre 1994 et 1998.
 Il a été élu membre de l’Academia Ophtalmologica Internationalis en 1990 (chaire n°VII) et a été le secrétaire général en 1994 et vice-président entre 2022 et 2006.
-Il a été décoré Chevalier de la Légion d’honneur en 1985, Officier de la Légion d’honneur en 1999 et Commandeur de la Légion d’honneur en 2007[14].  
+Il a été décoré Chevalier de la Légion d’honneur en 1985, Officier de la Légion d’honneur en 1999 et Commandeur de la Légion d’honneur en 2007.  
 </t>
         </is>
       </c>
@@ -695,17 +715,19 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gabriel Coscas est l’auteur ou le co-auteur de plus de 450 publications dans des revues internationales majeures, ainsi que de plusieurs livres et de nombreux chapitres dans des livres internationaux en anglais, en italien et en portugais.
-G. Coscas, P. Dhermy, J. Levaditi et R. Nataf, Histopathologie des conjonctivites folliculaires et du trachome, Amsterdam, Exerpta Medica, 1968[15].
-G. Coscas, H. Saraux et F. Rousselie, Optique médicale pratique, Paris, Doin, 1968[16].
+G. Coscas, P. Dhermy, J. Levaditi et R. Nataf, Histopathologie des conjonctivites folliculaires et du trachome, Amsterdam, Exerpta Medica, 1968.
+G. Coscas, H. Saraux et F. Rousselie, Optique médicale pratique, Paris, Doin, 1968.
 G. Coscas, P. Dhermy, J.A. Bernard, J.P. Aubry et M. Legras, Maculopathies œdémateuses, Paris, Lavauzelle éditeur, 1972.
-G. Coscas et R. Nataf, Les conjonctivites à virus, Paris, Masson, 1975[17].
+G. Coscas et R. Nataf, Les conjonctivites à virus, Paris, Masson, 1975.
 G. Coscas et B. Lombroso, Fotocoagulazione con argon laser, Roma, Arte della Stampa, 1977.
 G. Coscas et P. Dhermy, Occlusions veineuses rétiniennes, Paris, Masson, 1978.
 G. Coscas, D. Ducourneau, A.Gaudric, JD.Grange, JC. Hache, G. Soubrane et P. Turut, La vascularisation choroïdienne, Paris, Bull Soc Ophthalmol Fr, 1981.
-G. Coscas et L.S. Regenbogen, Oculo-auditory syndromes, New York, Masson, 1985[18].
+G. Coscas et L.S. Regenbogen, Oculo-auditory syndromes, New York, Masson, 1985.
 G. Coscas et G. Soubrane, Néovaisseaux sous-rétiniens maculaires, Paris, Doin, 1987.
 R. Brancato et G. Coscas, Ocular fluorophotometry, Amsterdam, Kugler-Ghedini, 1987.
 G. Coscas, Dégénérescence maculaire acquise liée à l'âge et néovaisseaux sous-rétiniens, Paris, Masson, 1991.
